--- a/Excel/Dashboards/Imagens Dinâmicas Excel 365.xlsx
+++ b/Excel/Dashboards/Imagens Dinâmicas Excel 365.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel 2021\Módulo 16 - Dashboards Impressionadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oneomnicom-my.sharepoint.com/personal/matheus_lourenco_omc_com/Documents/Documentos/Git Hub/Hashtag_AnaliseDados/Excel/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A571C13-939E-4D4A-8184-87AF607F7DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{2A571C13-939E-4D4A-8184-87AF607F7DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A38B5C62-1792-42E4-9692-A25D2E5EE733}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{A0D6CE5D-8462-400E-B7A6-65CA78D18720}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A0D6CE5D-8462-400E-B7A6-65CA78D18720}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,49 @@
     <sheet name="Dados" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dados!$A$1:$C$145</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ImagensDinâmicasExcel365.xlsxTabela11" hidden="1">Tabela1[]</definedName>
+    <definedName name="Pos_1">INDEX(Cortado!$B$2:$B$5,MATCH(Dados!$G$4,Cortado!$A$2:$A$5,0))</definedName>
+    <definedName name="Timeline_Data">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="127" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A2CB5862-8E78-49c6-8D9D-AF26E26ADB89}">
+      <x15:timelineCachePivotCaches>
+        <pivotCache cacheId="79" r:id="rId5"/>
+      </x15:timelineCachePivotCaches>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId6"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Tabela1" name="Tabela1" connection="WorksheetConnection_Imagens Dinâmicas Excel 365.xlsx!Tabela1"/>
+        </x15:modelTables>
+        <x15:extLst>
+          <ext xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" uri="{9835A34E-60A6-4A7C-AAB8-D5F71C897F49}">
+            <x16:modelTimeGroupings>
+              <x16:modelTimeGrouping tableName="Tabela1" columnName="Data" columnId="Data">
+                <x16:calculatedTimeColumn columnName="Data (Ano)" columnId="Data (Ano)" contentType="years" isSelected="1"/>
+                <x16:calculatedTimeColumn columnName="Data (Trimestre)" columnId="Data (Trimestre)" contentType="quarters" isSelected="1"/>
+                <x16:calculatedTimeColumn columnName="Data (Índice de Mês)" columnId="Data (Índice de Mês)" contentType="monthsindex" isSelected="1"/>
+                <x16:calculatedTimeColumn columnName="Data (Mês)" columnId="Data (Mês)" contentType="months" isSelected="1"/>
+              </x16:modelTimeGrouping>
+            </x16:modelTimeGroupings>
+          </ext>
+        </x15:extLst>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,8 +75,106 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{BFECD369-EC37-478D-A9F3-7C70677CF2F7}" keepAlive="1" name="ThisWorkbookDataModel" description="Modelo de Dados" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{81385B0D-7B09-419A-8C63-01500D2495CC}" name="WorksheetConnection_Imagens Dinâmicas Excel 365.xlsx!Tabela1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Tabela1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ImagensDinâmicasExcel365.xlsxTabela11"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <metadataStrings count="2">
+    <s v="ThisWorkbookDataModel"/>
+    <s v="{[Tabela1].[Data].[All]}"/>
+  </metadataStrings>
+  <mdxMetadata count="1">
+    <mdx n="0" f="s">
+      <ms ns="1" c="0"/>
+    </mdx>
+  </mdxMetadata>
+  <futureMetadata name="XLRICHVALUE" count="5">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="6">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="12">
   <si>
     <t>Carol</t>
   </si>
@@ -67,15 +202,26 @@
   <si>
     <t>Venda</t>
   </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="&quot;R$&quot;\ #,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +229,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,29 +283,3788 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="417">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,668 +4451,526 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>106334</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>116119</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>887467</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1104885</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1106251</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358665</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96564</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Agrupar 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B92E83-1043-425D-A154-BD09BFB8F860}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1325534" y="1518199"/>
-          <a:ext cx="998551" cy="990132"/>
-          <a:chOff x="1283312" y="1354551"/>
-          <a:chExt cx="1390583" cy="1389988"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Elipse 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC270BD-E3E7-4F60-91D5-8BE946DC9DAB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1283312" y="1354551"/>
-            <a:ext cx="1390583" cy="1384101"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Imagem 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE22560B-5A3B-4773-82A5-09643FC00649}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:grayscl/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId2">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="15937" b="94063" l="19375" r="84844">
-                        <a14:foregroundMark x1="34375" y1="80156" x2="34375" y2="80156"/>
-                        <a14:foregroundMark x1="47500" y1="82344" x2="47500" y2="82344"/>
-                        <a14:foregroundMark x1="61875" y1="80156" x2="61875" y2="80156"/>
-                        <a14:foregroundMark x1="65938" y1="80156" x2="65938" y2="80156"/>
-                        <a14:foregroundMark x1="66719" y1="79688" x2="66719" y2="79688"/>
-                        <a14:foregroundMark x1="69375" y1="79531" x2="69375" y2="79531"/>
-                        <a14:foregroundMark x1="70938" y1="79844" x2="70938" y2="79844"/>
-                        <a14:foregroundMark x1="72813" y1="83438" x2="72813" y2="83438"/>
-                        <a14:foregroundMark x1="23125" y1="83594" x2="37813" y2="85156"/>
-                        <a14:foregroundMark x1="38594" y1="90313" x2="72344" y2="91094"/>
-                        <a14:foregroundMark x1="77344" y1="85156" x2="83125" y2="86719"/>
-                        <a14:foregroundMark x1="84531" y1="94063" x2="84531" y2="94063"/>
-                        <a14:foregroundMark x1="84844" y1="85625" x2="84844" y2="85625"/>
-                        <a14:foregroundMark x1="50469" y1="67500" x2="57656" y2="66094"/>
-                        <a14:foregroundMark x1="30781" y1="44375" x2="30781" y2="44375"/>
-                        <a14:foregroundMark x1="37031" y1="45156" x2="46719" y2="28594"/>
-                        <a14:foregroundMark x1="64375" y1="24688" x2="65938" y2="25781"/>
-                        <a14:foregroundMark x1="61563" y1="47969" x2="61563" y2="47969"/>
-                        <a14:foregroundMark x1="53125" y1="15937" x2="53125" y2="15937"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                    <a14:imgEffect>
-                      <a14:artisticCutout/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="11727" t="8979" r="11492" b="14240"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1298034" y="1385145"/>
-            <a:ext cx="1366599" cy="1359394"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Data">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A4CF67-FD80-438B-EE4D-5BF1A3FDF931}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Data"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6582414" y="58464"/>
+              <a:ext cx="3331330" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Linha do tempo: Funciona em Excel 2013 ou superior. Não mover ou redimensionar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>105849</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>118717</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1105370</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1123156</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341611</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Agrupar 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568604E7-E887-4268-837D-F095D3A88EBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1325049" y="3959197"/>
-          <a:ext cx="999521" cy="1004439"/>
-          <a:chOff x="3358574" y="1205710"/>
-          <a:chExt cx="1391935" cy="1409915"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Elipse 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99499247-A7D3-43B8-A938-FEB716000AD7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3358574" y="1205710"/>
-            <a:ext cx="1391935" cy="1398046"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Imagem 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33E3647-9071-4B5B-A383-43B0DE422DA0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:grayscl/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="6094" b="62344" l="28438" r="69844">
-                        <a14:foregroundMark x1="40469" y1="26406" x2="40469" y2="26406"/>
-                        <a14:foregroundMark x1="49219" y1="21250" x2="49219" y2="21250"/>
-                        <a14:foregroundMark x1="48750" y1="22344" x2="48750" y2="22344"/>
-                        <a14:foregroundMark x1="43281" y1="9531" x2="43281" y2="9531"/>
-                        <a14:foregroundMark x1="49219" y1="8125" x2="49219" y2="8125"/>
-                        <a14:foregroundMark x1="47344" y1="7656" x2="47344" y2="7656"/>
-                        <a14:foregroundMark x1="34844" y1="42031" x2="39531" y2="33594"/>
-                        <a14:foregroundMark x1="40156" y1="45625" x2="58906" y2="50781"/>
-                        <a14:foregroundMark x1="63438" y1="42344" x2="57969" y2="45469"/>
-                        <a14:foregroundMark x1="66406" y1="42656" x2="69531" y2="53594"/>
-                        <a14:foregroundMark x1="35156" y1="42031" x2="35313" y2="41094"/>
-                        <a14:foregroundMark x1="35313" y1="34688" x2="35313" y2="34688"/>
-                        <a14:foregroundMark x1="31563" y1="40469" x2="31563" y2="40469"/>
-                        <a14:foregroundMark x1="34375" y1="35781" x2="35469" y2="27969"/>
-                        <a14:foregroundMark x1="36250" y1="25313" x2="37188" y2="21719"/>
-                        <a14:foregroundMark x1="36250" y1="15625" x2="39063" y2="13906"/>
-                        <a14:foregroundMark x1="50156" y1="7813" x2="47500" y2="7813"/>
-                        <a14:foregroundMark x1="49844" y1="6094" x2="46563" y2="6406"/>
-                        <a14:foregroundMark x1="35677" y1="23594" x2="36250" y2="33906"/>
-                        <a14:foregroundMark x1="35313" y1="17031" x2="35677" y2="23594"/>
-                        <a14:foregroundMark x1="32813" y1="42969" x2="41094" y2="50938"/>
-                        <a14:foregroundMark x1="49219" y1="50781" x2="44063" y2="48906"/>
-                        <a14:foregroundMark x1="47500" y1="50156" x2="56094" y2="49531"/>
-                        <a14:foregroundMark x1="56250" y1="50313" x2="69844" y2="62344"/>
-                        <a14:foregroundMark x1="30000" y1="50313" x2="35000" y2="42031"/>
-                        <a14:foregroundMark x1="34267" y1="23594" x2="34844" y2="19844"/>
-                        <a14:foregroundMark x1="34219" y1="23906" x2="34267" y2="23594"/>
-                        <a14:foregroundMark x1="49844" y1="35156" x2="51250" y2="34688"/>
-                        <a14:foregroundMark x1="46563" y1="34688" x2="46094" y2="30781"/>
-                        <a14:foregroundMark x1="30156" y1="41250" x2="38906" y2="36406"/>
-                        <a14:foregroundMark x1="30781" y1="46094" x2="37813" y2="37188"/>
-                        <a14:foregroundMark x1="36094" y1="23594" x2="42813" y2="16406"/>
-                        <a14:foregroundMark x1="55313" y1="8281" x2="60000" y2="17656"/>
-                        <a14:foregroundMark x1="57031" y1="12812" x2="61563" y2="33594"/>
-                        <a14:foregroundMark x1="34755" y1="23594" x2="34375" y2="20938"/>
-                        <a14:foregroundMark x1="34844" y1="24219" x2="34755" y2="23594"/>
-                        <a14:foregroundMark x1="30781" y1="40781" x2="33906" y2="33125"/>
-                        <a14:foregroundMark x1="33594" y1="46250" x2="56250" y2="49375"/>
-                        <a14:foregroundMark x1="61719" y1="35313" x2="59531" y2="27344"/>
-                        <a14:foregroundMark x1="59375" y1="33438" x2="58594" y2="27969"/>
-                        <a14:foregroundMark x1="35006" y1="23594" x2="37969" y2="15000"/>
-                        <a14:foregroundMark x1="34844" y1="24063" x2="35006" y2="23594"/>
-                        <a14:foregroundMark x1="36875" y1="11563" x2="48125" y2="6563"/>
-                        <a14:foregroundMark x1="48125" y1="6563" x2="52188" y2="7187"/>
-                        <a14:foregroundMark x1="44531" y1="6563" x2="57500" y2="10000"/>
-                        <a14:foregroundMark x1="57500" y1="10000" x2="62344" y2="22656"/>
-                        <a14:foregroundMark x1="62344" y1="22656" x2="64063" y2="43438"/>
-                        <a14:backgroundMark x1="32969" y1="23594" x2="32969" y2="23594"/>
-                        <a14:backgroundMark x1="33281" y1="26875" x2="32813" y2="21875"/>
-                        <a14:backgroundMark x1="33281" y1="25781" x2="32813" y2="14688"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                    <a14:imgEffect>
-                      <a14:artisticCutout/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="23704" t="2717" r="27692" b="48994"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3385366" y="1283676"/>
-            <a:ext cx="1338315" cy="1331949"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101517</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>108030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1109702</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1103362</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Agrupar 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864C01CC-61D1-4538-A6A4-BEFA6BFD864E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1320717" y="2729310"/>
-          <a:ext cx="1008185" cy="995332"/>
-          <a:chOff x="5145676" y="1127256"/>
-          <a:chExt cx="1404000" cy="1397234"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Elipse 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB4FF0B-720B-4E17-8EEF-6B69C18F75F6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5145676" y="1127256"/>
-            <a:ext cx="1404000" cy="1395794"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Imagem 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD78322A-71BB-4123-B387-1BD0CE170AF9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:grayscl/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId6">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="3376" b="87342" l="10549" r="82700">
-                        <a14:foregroundMark x1="36920" y1="82278" x2="62869" y2="83333"/>
-                        <a14:foregroundMark x1="61181" y1="85232" x2="40295" y2="87342"/>
-                        <a14:backgroundMark x1="20464" y1="14557" x2="32278" y2="5907"/>
-                        <a14:backgroundMark x1="32278" y1="5907" x2="46835" y2="2321"/>
-                        <a14:backgroundMark x1="46835" y1="2321" x2="58650" y2="4219"/>
-                        <a14:backgroundMark x1="66667" y1="73840" x2="68565" y2="62658"/>
-                        <a14:backgroundMark x1="68565" y1="62658" x2="74262" y2="51899"/>
-                        <a14:backgroundMark x1="74262" y1="51899" x2="73207" y2="38608"/>
-                        <a14:backgroundMark x1="30591" y1="71519" x2="24262" y2="59705"/>
-                        <a14:backgroundMark x1="24262" y1="59705" x2="23629" y2="59283"/>
-                        <a14:backgroundMark x1="30591" y1="70042" x2="18776" y2="48945"/>
-                        <a14:backgroundMark x1="18776" y1="48945" x2="19831" y2="43671"/>
-                        <a14:backgroundMark x1="70675" y1="53586" x2="70675" y2="53586"/>
-                        <a14:backgroundMark x1="69620" y1="54219" x2="75105" y2="56751"/>
-                        <a14:backgroundMark x1="68354" y1="53376" x2="71308" y2="54008"/>
-                        <a14:backgroundMark x1="73207" y1="40928" x2="73207" y2="40928"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                    <a14:imgEffect>
-                      <a14:artisticCutout/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="2158" t="216" r="7514" b="9455"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="187315">
-            <a:off x="5211026" y="1222434"/>
-            <a:ext cx="1284091" cy="1302056"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101517</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1109702</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1118856</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Agrupar 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBE6739-364D-4A14-971B-B36278298945}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1320717" y="296945"/>
-          <a:ext cx="1008185" cy="1004791"/>
-          <a:chOff x="6875585" y="592015"/>
-          <a:chExt cx="1404000" cy="1412632"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Elipse 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1116F55-8477-4240-8DD3-A194708A91DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6875585" y="592015"/>
-            <a:ext cx="1404000" cy="1404000"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Imagem 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101A62BD-D3F3-44F0-9B99-2BBF4D850FD2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-            <a:grayscl/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId8">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="1719" b="91563" l="14375" r="89688">
-                        <a14:foregroundMark x1="24375" y1="75781" x2="30469" y2="17500"/>
-                        <a14:foregroundMark x1="30469" y1="17500" x2="45938" y2="7187"/>
-                        <a14:foregroundMark x1="45938" y1="7187" x2="69219" y2="15781"/>
-                        <a14:foregroundMark x1="69219" y1="15781" x2="77344" y2="42344"/>
-                        <a14:foregroundMark x1="77344" y1="42344" x2="77344" y2="44531"/>
-                        <a14:foregroundMark x1="82813" y1="75938" x2="83281" y2="51094"/>
-                        <a14:foregroundMark x1="83281" y1="51094" x2="82031" y2="46094"/>
-                        <a14:foregroundMark x1="80781" y1="41563" x2="80156" y2="27187"/>
-                        <a14:foregroundMark x1="75156" y1="15469" x2="56719" y2="6250"/>
-                        <a14:foregroundMark x1="56719" y1="6250" x2="44688" y2="5313"/>
-                        <a14:foregroundMark x1="20313" y1="69375" x2="20313" y2="69375"/>
-                        <a14:foregroundMark x1="21563" y1="61563" x2="21719" y2="38594"/>
-                        <a14:foregroundMark x1="25781" y1="32813" x2="31406" y2="9063"/>
-                        <a14:foregroundMark x1="38125" y1="7187" x2="54688" y2="3750"/>
-                        <a14:foregroundMark x1="66563" y1="6563" x2="54844" y2="5469"/>
-                        <a14:foregroundMark x1="28594" y1="11875" x2="46875" y2="5156"/>
-                        <a14:foregroundMark x1="22188" y1="69063" x2="36250" y2="85938"/>
-                        <a14:foregroundMark x1="80313" y1="83281" x2="64063" y2="75000"/>
-                        <a14:foregroundMark x1="70938" y1="86250" x2="39844" y2="87656"/>
-                        <a14:foregroundMark x1="32344" y1="87188" x2="18750" y2="76406"/>
-                        <a14:foregroundMark x1="84375" y1="68750" x2="67813" y2="87656"/>
-                        <a14:foregroundMark x1="67813" y1="87656" x2="46563" y2="91563"/>
-                        <a14:foregroundMark x1="46563" y1="91563" x2="38125" y2="89688"/>
-                        <a14:foregroundMark x1="44688" y1="2500" x2="40000" y2="2344"/>
-                        <a14:foregroundMark x1="64844" y1="1875" x2="80469" y2="18281"/>
-                        <a14:foregroundMark x1="80469" y1="18281" x2="79688" y2="20000"/>
-                        <a14:foregroundMark x1="21563" y1="47500" x2="24375" y2="30156"/>
-                        <a14:foregroundMark x1="35625" y1="6406" x2="38594" y2="1719"/>
-                        <a14:foregroundMark x1="73281" y1="8906" x2="69219" y2="5469"/>
-                        <a14:foregroundMark x1="64375" y1="85938" x2="89375" y2="89531"/>
-                        <a14:foregroundMark x1="85781" y1="72969" x2="85625" y2="82656"/>
-                        <a14:foregroundMark x1="72031" y1="88906" x2="61406" y2="83594"/>
-                        <a14:foregroundMark x1="16250" y1="73750" x2="20781" y2="63906"/>
-                        <a14:foregroundMark x1="16875" y1="84688" x2="17813" y2="76406"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                    <a14:imgEffect>
-                      <a14:artisticCutout/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="5244" t="425" r="809" b="5627"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6928336" y="691660"/>
-            <a:ext cx="1312987" cy="1312987"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Imagem 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D7375D-FAA5-425E-4774-F8B6B0AB1502}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Pos_1" spid="_x0000_s3079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3840079" y="1965158"/>
+              <a:ext cx="1183821" cy="1224643"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Choice>
+      <mc:Fallback/>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Matheus Lourenço (Global Shopper)" refreshedDate="45931.6707306713" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D6FBAE42-9EBC-4CB5-8732-877B04F9F9D0}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Tabela1].[Data].[Data]" caption="Data" numFmtId="0" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Soma de Venda]" caption="Soma de Venda" numFmtId="0" hierarchy="9" level="32767"/>
+    <cacheField name="[Tabela1].[Vendedor].[Vendedor]" caption="Vendedor" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="4">
+        <s v="Bruna"/>
+        <s v="Carol"/>
+        <s v="João"/>
+        <s v="Pedro"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Tabela1].[Data (Ano)].[Data (Ano)]" caption="Data (Ano)" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="10">
+    <cacheHierarchy uniqueName="[Tabela1].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Tabela1].[Data].[All]" allUniqueName="[Tabela1].[Data].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tabela1].[Vendedor]" caption="Vendedor" attribute="1" defaultMemberUniqueName="[Tabela1].[Vendedor].[All]" allUniqueName="[Tabela1].[Vendedor].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tabela1].[Venda]" caption="Venda" attribute="1" defaultMemberUniqueName="[Tabela1].[Venda].[All]" allUniqueName="[Tabela1].[Venda].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Ano)]" caption="Data (Ano)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Ano)].[All]" allUniqueName="[Tabela1].[Data (Ano)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Trimestre)]" caption="Data (Trimestre)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Trimestre)].[All]" allUniqueName="[Tabela1].[Data (Trimestre)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Mês)]" caption="Data (Mês)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Mês)].[All]" allUniqueName="[Tabela1].[Data (Mês)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Índice de Mês)]" caption="Data (Índice de Mês)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Índice de Mês)].[All]" allUniqueName="[Tabela1].[Data (Índice de Mês)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Tabela1]" caption="__XL_Count Tabela1" measure="1" displayFolder="" measureGroup="Tabela1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Venda]" caption="Soma de Venda" measure="1" displayFolder="" measureGroup="Tabela1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Tabela1" uniqueName="[Tabela1]" caption="Tabela1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Tabela1" caption="Tabela1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Matheus Lourenço (Global Shopper)" refreshedDate="45931.665016319443" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0B7C9277-C8BE-4B18-8393-57DAD1137FCC}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="10">
+    <cacheHierarchy uniqueName="[Tabela1].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Tabela1].[Data].[All]" allUniqueName="[Tabela1].[Data].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Vendedor]" caption="Vendedor" attribute="1" defaultMemberUniqueName="[Tabela1].[Vendedor].[All]" allUniqueName="[Tabela1].[Vendedor].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Venda]" caption="Venda" attribute="1" defaultMemberUniqueName="[Tabela1].[Venda].[All]" allUniqueName="[Tabela1].[Venda].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Ano)]" caption="Data (Ano)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Ano)].[All]" allUniqueName="[Tabela1].[Data (Ano)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Trimestre)]" caption="Data (Trimestre)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Trimestre)].[All]" allUniqueName="[Tabela1].[Data (Trimestre)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Mês)]" caption="Data (Mês)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Mês)].[All]" allUniqueName="[Tabela1].[Data (Mês)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tabela1].[Data (Índice de Mês)]" caption="Data (Índice de Mês)" attribute="1" defaultMemberUniqueName="[Tabela1].[Data (Índice de Mês)].[All]" allUniqueName="[Tabela1].[Data (Índice de Mês)].[All]" dimensionUniqueName="[Tabela1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Tabela1]" caption="__XL_Count Tabela1" measure="1" displayFolder="" measureGroup="Tabela1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Soma de Venda]" caption="Soma de Venda" measure="1" displayFolder="" measureGroup="Tabela1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1395023285" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
+      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD6295EE-1795-4D53-AE4C-63C908764767}" name="Teste" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Período" colHeaderCaption="Vendedores">
+  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="0" name="[Tabela1].[Data].[All]" cap="All"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Receita" fld="1" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="19">
+    <format dxfId="408">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="409">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="407">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="406">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="405">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="404">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="403">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="402">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="401">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="400">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="399">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="398">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="397">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="396">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="395">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="394">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="393">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="10">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[Tabela1].[Data (Ano)].&amp;[2018]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Receita"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Imagens Dinâmicas Excel 365.xlsx!Tabela1">
+        <x15:activeTabTopLevelEntity name="[Tabela1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22E5129F-51F7-412A-A25D-DA8C0761C0BF}" name="Tabela1" displayName="Tabela1" ref="A1:C145" totalsRowShown="0" headerRowDxfId="410" headerRowBorderDxfId="415" tableBorderDxfId="416" totalsRowBorderDxfId="414">
+  <autoFilter ref="A1:C145" xr:uid="{DEF25D0E-E184-4B80-96A3-52341F5801F7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3B7A9A83-201F-4746-9179-B316039D9001}" name="Data" dataDxfId="413"/>
+    <tableColumn id="2" xr3:uid="{612F12D4-CAFA-4FC4-B96A-E1141D21BCD0}" name="Vendedor" dataDxfId="412"/>
+    <tableColumn id="3" xr3:uid="{A3911D66-D37D-4F7E-B750-2B9EB0128DD7}" name="Venda" dataDxfId="411"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1223,7 +5008,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1329,7 +5114,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1471,10 +5256,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="Timeline_Data" xr10:uid="{B8D3B86F-C091-401F-AD77-033F4A313569}" sourceName="[Tabela1].[Data]">
+  <pivotTables>
+    <pivotTable tabId="5" name="Teste"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1395023285" filterType="dateBetween">
+    <selection startDate="2020-01-01T00:00:00" endDate="2020-12-31T00:00:00"/>
+    <bounds startDate="2018-01-01T00:00:00" endDate="2021-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Data" xr10:uid="{9616CDA2-1A79-40B1-A0CE-35B50EDA94E9}" cache="Timeline_Data" caption="Data" level="0" selectionLevel="0" scrollPosition="2018-01-01T00:00:00"/>
+</timelines>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1483,1677 +5286,1802 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" ht="96" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="96" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="96" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="96" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential - Not for Public Consumption or Distribution</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397B6171-BC73-40F6-93B2-517631F68DD0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.77734375" customWidth="1"/>
+    <col min="1" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="1" t="e" vm="3">
+        <f>VLOOKUP($D$1,$A$2:$B$5,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{3FF92F46-45EB-4F12-A674-762A272DE456}">
+      <formula1>$A$2:$A$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential - Not for Public Consumption or Distribution</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF25D0E-E184-4B80-96A3-52341F5801F7}">
-  <dimension ref="A1:C145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF25D0E-E184-4B80-96A3-52341F5801F7}">
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H18" sqref="F8:H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s" vm="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>43101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>212192</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>43101</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>151302</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="F3" s="17"/>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>43101</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>192361</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="F4" s="18"/>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1776613</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>43101</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>131813</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="F5" s="18"/>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1730107</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>43132</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>165930</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="F6" s="18"/>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1643524</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>43132</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>287339</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="F7" s="18"/>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1350410</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>43132</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>211906</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>43132</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>298758</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>43160</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>273865</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>43160</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>190853</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>43160</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>101996</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>43160</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>82596</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>43191</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>73891</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>43191</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>162522</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>43191</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>101593</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>43191</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>174785</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>43221</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>141421</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>43221</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>108137</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>43221</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>258937</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>43221</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>122190</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>43252</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>270079</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>43252</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>198456</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>43252</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>195479</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>43252</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <v>124361</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>43282</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>263586</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>43282</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <v>217940</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>43282</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="6">
         <v>28193</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>43282</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="6">
         <v>152021</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>43313</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="6">
         <v>116850</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>43313</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="6">
         <v>80147</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>43313</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <v>40126</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>43313</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <v>228859</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>43344</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="6">
         <v>217862</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>43344</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="6">
         <v>82767</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>43344</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="6">
         <v>200683</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>43344</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="6">
         <v>209980</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>43374</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="6">
         <v>212498</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>43374</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="6">
         <v>47799</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>43374</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="6">
         <v>268123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>43374</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="6">
         <v>72971</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>43405</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="6">
         <v>54834</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>43405</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="6">
         <v>179796</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>43405</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="6">
         <v>289926</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>43405</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="6">
         <v>184274</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>43435</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="6">
         <v>181445</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>43435</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="6">
         <v>275298</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>43435</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="6">
         <v>56044</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>43435</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="6">
         <v>289881</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>43466</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="6">
         <v>267777</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>43466</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="6">
         <v>82055</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>43466</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="6">
         <v>126128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>43466</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="6">
         <v>132006</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>43497</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="6">
         <v>23299</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>43497</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="6">
         <v>163867</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>43497</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="6">
         <v>44990</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>43497</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="6">
         <v>36244</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>43525</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="6">
         <v>298130</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>43525</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="6">
         <v>246936</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>43525</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="6">
         <v>155183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>43525</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="6">
         <v>289931</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>43556</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="6">
         <v>145881</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>43556</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="6">
         <v>45748</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>43556</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="6">
         <v>90741</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>43556</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="6">
         <v>27052</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>43586</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="6">
         <v>238077</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>43586</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="6">
         <v>150637</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>43586</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="6">
         <v>271392</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>43586</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="6">
         <v>120093</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>43617</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="6">
         <v>93027</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>43617</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="6">
         <v>236330</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>43617</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="6">
         <v>165542</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>43617</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="6">
         <v>136742</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>43647</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="6">
         <v>151723</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>43647</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="6">
         <v>253470</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>43647</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="6">
         <v>74642</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>43647</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="6">
         <v>34385</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>43678</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="6">
         <v>99701</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>43678</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="6">
         <v>198113</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>43678</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="6">
         <v>279269</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>43678</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="6">
         <v>138542</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>43709</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="6">
         <v>268138</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>43709</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="6">
         <v>241735</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>43709</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="6">
         <v>57295</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>43709</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="6">
         <v>99846</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>43739</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="6">
         <v>201649</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>43739</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="6">
         <v>190067</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>43739</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="6">
         <v>27473</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>43739</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="6">
         <v>257913</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
         <v>43770</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="6">
         <v>57022</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
         <v>43770</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="6">
         <v>135668</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>43770</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="6">
         <v>130740</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
         <v>43770</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="6">
         <v>297329</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
         <v>43800</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="6">
         <v>255765</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
         <v>43800</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="6">
         <v>41978</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>43800</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="6">
         <v>195555</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>43800</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="6">
         <v>95130</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
         <v>43831</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="6">
         <v>221125</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
         <v>43831</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="6">
         <v>102318</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>43831</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="6">
         <v>125157</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>43831</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="6">
         <v>222081</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>43862</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="6">
         <v>121339</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
         <v>43862</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="6">
         <v>146563</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>43862</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="6">
         <v>106064</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
         <v>43862</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="6">
         <v>258287</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
         <v>43891</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="6">
         <v>54145</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
         <v>43891</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="6">
         <v>50591</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
         <v>43891</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="6">
         <v>42617</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
         <v>43891</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="6">
         <v>141126</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
         <v>43922</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="6">
         <v>90750</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
         <v>43922</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="6">
         <v>108354</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
         <v>43922</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="6">
         <v>108064</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
         <v>43922</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="6">
         <v>45126</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
         <v>43952</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="6">
         <v>267590</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
         <v>43952</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="6">
         <v>52812</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
         <v>43952</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="6">
         <v>135206</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
         <v>43952</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="6">
         <v>132642</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
         <v>43983</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="6">
         <v>172832</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
         <v>43983</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="6">
         <v>168856</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
         <v>43983</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="6">
         <v>186044</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
         <v>43983</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="6">
         <v>252890</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
         <v>44013</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="6">
         <v>87883</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
         <v>44013</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="6">
         <v>279670</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
         <v>44013</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="6">
         <v>143375</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
         <v>44013</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="6">
         <v>99020</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
         <v>44044</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="6">
         <v>145113</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
         <v>44044</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="6">
         <v>73079</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
         <v>44044</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="6">
         <v>78497</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
         <v>44044</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="6">
         <v>128580</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
         <v>44075</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="6">
         <v>44329</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
         <v>44075</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="6">
         <v>183733</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
         <v>44075</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="6">
         <v>38036</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
         <v>44075</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="6">
         <v>40341</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
         <v>44105</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="6">
         <v>53587</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
         <v>44105</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="6">
         <v>103902</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
         <v>44105</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="6">
         <v>97361</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
         <v>44105</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="6">
         <v>150800</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
         <v>44136</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="6">
         <v>219773</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
         <v>44136</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="6">
         <v>125020</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
         <v>44136</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="6">
         <v>97955</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
         <v>44136</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="6">
         <v>105055</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
         <v>44166</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="6">
         <v>251641</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
         <v>44166</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="6">
         <v>248626</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
         <v>44166</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="6">
         <v>192034</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
         <v>44166</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="12">
         <v>200665</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C145" xr:uid="{DEF25D0E-E184-4B80-96A3-52341F5801F7}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential - Not for Public Consumption or Distribution</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId5"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>